--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL2.90days.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL2.90days.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">MCP1_pg_ug_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
   <si>
     <t xml:space="preserve">epstroke.90days</t>
@@ -453,28 +459,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.849762069756118</v>
+        <v>1.108808975717</v>
       </c>
       <c r="E2" t="n">
-        <v>0.355633416689822</v>
+        <v>0.381786002585533</v>
       </c>
       <c r="F2" t="n">
-        <v>2.3390902453993</v>
+        <v>3.03074655122802</v>
       </c>
       <c r="G2" t="n">
-        <v>1.16499940122091</v>
+        <v>1.43405831977462</v>
       </c>
       <c r="H2" t="n">
-        <v>4.69643432467711</v>
+        <v>6.40519603081702</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38943257263495</v>
+        <v>2.90426827648976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0168744210202633</v>
+        <v>0.00368112584025718</v>
       </c>
       <c r="K2" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L2" t="n">
         <v>37</v>
@@ -485,37 +491,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.818453682509786</v>
+        <v>0.815177056352301</v>
       </c>
       <c r="E3" t="n">
-        <v>0.414226803970527</v>
+        <v>0.373123633742323</v>
       </c>
       <c r="F3" t="n">
-        <v>2.26699163701705</v>
+        <v>2.25957570916694</v>
       </c>
       <c r="G3" t="n">
-        <v>1.00659077089676</v>
+        <v>1.08747091002143</v>
       </c>
       <c r="H3" t="n">
-        <v>5.10560123427986</v>
+        <v>4.69500594306165</v>
       </c>
       <c r="I3" t="n">
-        <v>1.97585881614754</v>
+        <v>2.18473712902158</v>
       </c>
       <c r="J3" t="n">
-        <v>0.048170769754393</v>
+        <v>0.0289081261739204</v>
       </c>
       <c r="K3" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L3" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -523,37 +529,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.549710230455486</v>
+        <v>-0.462104770413037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.578672882956678</v>
+        <v>0.536552389179315</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73275084669035</v>
+        <v>0.62995633569884</v>
       </c>
       <c r="G4" t="n">
-        <v>0.557390827386631</v>
+        <v>0.220083677382947</v>
       </c>
       <c r="H4" t="n">
-        <v>5.38657141306616</v>
+        <v>1.80315500725025</v>
       </c>
       <c r="I4" t="n">
-        <v>0.949949870895608</v>
+        <v>-0.861248183275915</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3421377247294</v>
+        <v>0.389101367663012</v>
       </c>
       <c r="K4" t="n">
-        <v>1027</v>
+        <v>493</v>
       </c>
       <c r="L4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -567,31 +573,335 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.481007554140031</v>
+        <v>1.10546122275982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.96308134380616</v>
+        <v>0.446587176506691</v>
       </c>
       <c r="F5" t="n">
-        <v>1.61770350521435</v>
+        <v>3.02061732503239</v>
       </c>
       <c r="G5" t="n">
-        <v>0.24496697346198</v>
+        <v>1.25878926323529</v>
       </c>
       <c r="H5" t="n">
-        <v>10.6829283711135</v>
+        <v>7.24833718460176</v>
       </c>
       <c r="I5" t="n">
-        <v>0.499446445758214</v>
+        <v>2.47535370676559</v>
       </c>
       <c r="J5" t="n">
-        <v>0.617464905887406</v>
+        <v>0.0133104280099471</v>
       </c>
       <c r="K5" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.924775855993483</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.443385308912267</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.52130306204764</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.05732343189811</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.01232218913255</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.08571605194179</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0370043515312527</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L6" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.164612344502335</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.593397148988678</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.17893600909127</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.368451545376</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.77224666574184</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2774066993461</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.781467838081554</v>
+      </c>
+      <c r="K7" t="n">
+        <v>493</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.791264058554015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.623215020211065</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.2061834094403</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.650354694511652</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.48398570374651</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.2696485689418</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.20420984052804</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.29752697608952</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.667509291082067</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.66023362041083</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.989266782061556</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.5426665475079</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.94383358168119</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0519155227223299</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.36579275519938</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.1180932199538</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.255178301856539</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0285169832320325</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.28341003704921</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.22153746291013</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.221882590242073</v>
+      </c>
+      <c r="K10" t="n">
+        <v>493</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.91950274774125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.857554692296473</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.532070054555</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.45110873141841</v>
+      </c>
+      <c r="H11" t="n">
+        <v>99.5151550515712</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.4044507877661</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.000662972450947386</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L11" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.102224662788281</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.927060709388879</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.10763228753517</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.179997138108792</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.81593772701468</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.110267495702269</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.91219723470555</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>31.2435242613778</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40.3755171219442</v>
+      </c>
+      <c r="F13" t="n">
+        <v>37058700128178.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00000000000000000000158692416495058</v>
+      </c>
+      <c r="H13" t="n">
+        <v>865414545649102000861002461397981454126439989248</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.773823507127217</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.439035169310639</v>
+      </c>
+      <c r="K13" t="n">
+        <v>493</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
